--- a/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.23409130606441303</v>
+        <v>0.23409130568638431</v>
       </c>
       <c r="C2">
-        <v>0.34246288127354835</v>
+        <v>0.34246287928492741</v>
       </c>
       <c r="D2">
-        <v>3.0846684798738342</v>
+        <v>3.0846684828559159</v>
       </c>
       <c r="E2">
-        <v>0.84788490064791178</v>
+        <v>0.84788489986349658</v>
       </c>
       <c r="F2">
-        <v>2.4871776094888554</v>
+        <v>2.4871775921093744</v>
       </c>
       <c r="G2">
-        <v>1.3964855459915611</v>
+        <v>1.3964855402082479</v>
       </c>
       <c r="H2">
-        <v>3.2156899299863313</v>
+        <v>3.2156899234960874</v>
       </c>
       <c r="I2">
-        <v>0.273525835410935</v>
+        <v>0.27352583339809033</v>
       </c>
       <c r="J2">
-        <v>2.85336914307709</v>
+        <v>2.8533691361420424</v>
       </c>
       <c r="K2">
-        <v>1.3955551869469209</v>
+        <v>1.395555179062117</v>
       </c>
       <c r="L2">
-        <v>0.62533111257003782</v>
+        <v>0.62533111034292421</v>
       </c>
       <c r="M2">
-        <v>1.8206671991971255</v>
+        <v>1.8206671976396482</v>
       </c>
       <c r="N2">
-        <v>9.6208093513253129E-2</v>
+        <v>9.6208093367374056E-2</v>
       </c>
       <c r="O2">
-        <v>1.2238414943433735</v>
+        <v>1.223841499899845</v>
       </c>
       <c r="P2">
-        <v>0.17126847533467557</v>
+        <v>0.17126847524027206</v>
       </c>
       <c r="Q2">
-        <v>0.61454559447217361</v>
+        <v>0.61454559446117607</v>
       </c>
       <c r="R2">
-        <v>1.1639202411823244</v>
+        <v>1.1639202427331687</v>
       </c>
       <c r="S2">
-        <v>1.1469991473401797</v>
+        <v>1.1469991501210586</v>
       </c>
       <c r="T2">
-        <v>0.51901561184131384</v>
+        <v>0.51901561351930625</v>
       </c>
       <c r="U2">
-        <v>1.6726134274881641</v>
+        <v>1.6726134213967252</v>
       </c>
       <c r="V2">
-        <v>1.2390786137633631</v>
+        <v>1.2390786078759237</v>
       </c>
       <c r="W2">
-        <v>0.50939482645407863</v>
+        <v>0.50939482482998022</v>
       </c>
       <c r="X2">
-        <v>0.2181076574695345</v>
+        <v>0.21810765697315518</v>
       </c>
       <c r="Y2">
-        <v>0.23652493246247169</v>
+        <v>0.23652493816764703</v>
       </c>
       <c r="AA2">
-        <v>0.61244188221520512</v>
+        <v>0.61244188324353543</v>
       </c>
       <c r="AB2">
-        <v>0.19840936371513554</v>
+        <v>0.19840936431975265</v>
       </c>
       <c r="AC2">
-        <v>2.7766074423963238</v>
+        <v>2.7766074289692946</v>
       </c>
       <c r="AD2">
-        <v>0.35876282341794441</v>
+        <v>0.35876282356010525</v>
       </c>
       <c r="AE2">
-        <v>0.87158094859681279</v>
+        <v>0.87158093780677759</v>
       </c>
       <c r="AF2">
-        <v>1.4690611499502204</v>
+        <v>1.469061151376996</v>
       </c>
       <c r="AG2">
-        <v>1.5087207645982812</v>
+        <v>1.5087207661918476</v>
       </c>
       <c r="AH2">
-        <v>0.19492870377575297</v>
+        <v>0.19492870401328494</v>
       </c>
       <c r="AI2">
-        <v>3.8904535546245782</v>
+        <v>3.8904535714685737</v>
       </c>
       <c r="AJ2">
-        <v>2.2635325961796986</v>
+        <v>2.2635325963367414</v>
       </c>
       <c r="AK2">
-        <v>0.86739875054692805</v>
+        <v>0.86739874858845223</v>
       </c>
       <c r="AL2">
-        <v>0.86430155006420828</v>
+        <v>0.86430153946057631</v>
       </c>
       <c r="AM2">
-        <v>0.13896637642264109</v>
+        <v>0.13896637662626507</v>
       </c>
       <c r="AN2">
-        <v>3.2553633447683126</v>
+        <v>3.2553633475097685</v>
       </c>
       <c r="AO2">
-        <v>0.25601607200603238</v>
+        <v>0.25601607130077603</v>
       </c>
       <c r="AP2">
-        <v>0.65218261843554703</v>
+        <v>0.65218262161756813</v>
       </c>
       <c r="AQ2">
-        <v>0.94000998710435457</v>
+        <v>0.94000999168690191</v>
       </c>
       <c r="AR2">
-        <v>0.3859843439288429</v>
+        <v>0.38598434198304565</v>
       </c>
       <c r="AS2">
-        <v>0.32904622153172264</v>
+        <v>0.32904621937662915</v>
       </c>
       <c r="AT2">
-        <v>1.3362282719359961</v>
+        <v>1.3362282627146371</v>
       </c>
       <c r="AU2">
-        <v>0.856704019049773</v>
+        <v>0.85670402085418562</v>
       </c>
       <c r="AV2">
-        <v>0.39526291260311297</v>
+        <v>0.39526291068194364</v>
       </c>
       <c r="AW2">
-        <v>0.21713541387127616</v>
+        <v>0.21713541417780044</v>
       </c>
       <c r="AX2">
-        <v>0.22390195355468273</v>
+        <v>0.22390195274019448</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0101749874957546</v>
+        <v>1.0101749891155236</v>
       </c>
       <c r="C3">
-        <v>0.61745658927608171</v>
+        <v>0.61745659234070605</v>
       </c>
       <c r="D3">
-        <v>0.60259291002287474</v>
+        <v>0.60259291125627212</v>
       </c>
       <c r="E3">
-        <v>1.2877742529084493</v>
+        <v>1.2877742380629895</v>
       </c>
       <c r="F3">
-        <v>1.7794670708563864</v>
+        <v>1.7794670705552225</v>
       </c>
       <c r="G3">
-        <v>1.8117098636893627</v>
+        <v>1.8117098584444205</v>
       </c>
       <c r="H3">
-        <v>3.3798317214192921</v>
+        <v>3.379831718836189</v>
       </c>
       <c r="I3">
-        <v>0.57570798827206215</v>
+        <v>0.57570798376965926</v>
       </c>
       <c r="J3">
-        <v>1.8546843257976924</v>
+        <v>1.8546843217068776</v>
       </c>
       <c r="K3">
-        <v>1.7955989004073338</v>
+        <v>1.7955988992080243</v>
       </c>
       <c r="L3">
-        <v>0.83709985102724771</v>
+        <v>0.83709984572125262</v>
       </c>
       <c r="M3">
-        <v>0.59225005923792029</v>
+        <v>0.59224584500765709</v>
       </c>
       <c r="N3">
-        <v>0.22509082660851382</v>
+        <v>0.22509082614623285</v>
       </c>
       <c r="O3">
-        <v>1.5922737899145689</v>
+        <v>1.592273790255478</v>
       </c>
       <c r="P3">
-        <v>0.2121410596992325</v>
+        <v>0.2121410568890178</v>
       </c>
       <c r="Q3">
-        <v>0.425430396393215</v>
+        <v>0.4254304001243418</v>
       </c>
       <c r="R3">
-        <v>0.46968756262080735</v>
+        <v>0.46968756291163238</v>
       </c>
       <c r="S3">
-        <v>0.20192573003006947</v>
+        <v>0.20192572897183952</v>
       </c>
       <c r="T3">
-        <v>0.22954394491476476</v>
+        <v>0.22954394556749488</v>
       </c>
       <c r="U3">
-        <v>2.3281626443057042</v>
+        <v>2.3281626436531844</v>
       </c>
       <c r="V3">
-        <v>0.8589953610750094</v>
+        <v>0.8589953580164611</v>
       </c>
       <c r="W3">
-        <v>0.12232915899990737</v>
+        <v>0.12232915917422893</v>
       </c>
       <c r="X3">
-        <v>0.31322123111352912</v>
+        <v>0.313221229582751</v>
       </c>
       <c r="Y3">
-        <v>0.53555560578663697</v>
+        <v>0.53555560396259916</v>
       </c>
       <c r="AA3">
-        <v>0.52947107283727113</v>
+        <v>0.52947107596893273</v>
       </c>
       <c r="AB3">
-        <v>2.8864701564471518</v>
+        <v>2.8864701504235617</v>
       </c>
       <c r="AC3">
-        <v>1.1226391382413057</v>
+        <v>1.1226391422077604</v>
       </c>
       <c r="AD3">
-        <v>0.723734053193408</v>
+        <v>0.7237340502712265</v>
       </c>
       <c r="AE3">
-        <v>1.9415079480407929</v>
+        <v>1.9415079572970804</v>
       </c>
       <c r="AF3">
-        <v>0.49104851891043744</v>
+        <v>0.49104851879189848</v>
       </c>
       <c r="AG3">
-        <v>0.7351479009225822</v>
+        <v>0.73514789457201979</v>
       </c>
       <c r="AH3">
-        <v>0.52880453932200644</v>
+        <v>0.528804536845081</v>
       </c>
       <c r="AI3">
-        <v>1.2791031606802714</v>
+        <v>1.2791031637266015</v>
       </c>
       <c r="AJ3">
-        <v>1.9832308120695974</v>
+        <v>1.9832308105865164</v>
       </c>
       <c r="AK3">
-        <v>0.50336578133530085</v>
+        <v>0.50336578170552815</v>
       </c>
       <c r="AL3">
-        <v>0.38814444847488572</v>
+        <v>0.3881444466666415</v>
       </c>
       <c r="AM3">
-        <v>0.24152064178132299</v>
+        <v>0.24152064206455273</v>
       </c>
       <c r="AN3">
-        <v>1.3791337205524443</v>
+        <v>1.3791337152805876</v>
       </c>
       <c r="AO3">
-        <v>0.17718785669933823</v>
+        <v>0.17718785476430005</v>
       </c>
       <c r="AP3">
-        <v>0.21143163569584594</v>
+        <v>0.21143163575725019</v>
       </c>
       <c r="AQ3">
-        <v>0.23153112226839484</v>
+        <v>0.2315311220015043</v>
       </c>
       <c r="AR3">
-        <v>0.18509314755538742</v>
+        <v>0.18509314821723297</v>
       </c>
       <c r="AS3">
-        <v>0.25085951584491128</v>
+        <v>0.25085951673322077</v>
       </c>
       <c r="AT3">
-        <v>1.0265552930421573</v>
+        <v>1.0265552956589588</v>
       </c>
       <c r="AU3">
-        <v>1.0181748079869442</v>
+        <v>1.0181748038709504</v>
       </c>
       <c r="AV3">
-        <v>0.20811207081762079</v>
+        <v>0.20811207195640744</v>
       </c>
       <c r="AW3">
-        <v>0.30033570829958189</v>
+        <v>0.30033570430314366</v>
       </c>
       <c r="AX3">
-        <v>0.7517721377438189</v>
+        <v>0.75177213690401479</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.23409130568638431</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.34246287928492741</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.0846684828559159</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.84788489986349658</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.4871775921093744</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.3964855402082479</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.2156899234960874</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.27352583339809033</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.8533691361420424</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.395555179062117</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.62533111034292421</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.8206671976396482</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.6208093367374056E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.223841499899845</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.17126847524027206</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.61454559446117607</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.1639202427331687</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.1469991501210586</v>
@@ -585,55 +474,55 @@
         <v>0.23652493816764703</v>
       </c>
       <c r="AA2">
-        <v>0.61244188324353543</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.19840936431975265</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.7766074289692946</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.35876282356010525</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.87158093780677759</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.469061151376996</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.5087207661918476</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.19492870401328494</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.8904535714685737</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.2635325963367414</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.86739874858845223</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.86430153946057631</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.13896637662626507</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.2553633475097685</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.25601607130077603</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.65218262161756813</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.94000999168690191</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.38598434198304565</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.22390195274019448</v>
       </c>
+      <c r="AY2">
+        <v>0.7588887553863175</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.0101749891155236</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.61745659234070605</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.60259291125627212</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.2877742380629895</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.7794670705552225</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.8117098584444205</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.379831718836189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.57570798376965926</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.8546843217068776</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.7955988992080243</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.83709984572125262</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.59224584500765709</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.22509082614623285</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.592273790255478</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2121410568890178</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4254304001243418</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.46968756291163238</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.20192572897183952</v>
@@ -734,55 +623,55 @@
         <v>0.53555560396259916</v>
       </c>
       <c r="AA3">
-        <v>0.52947107596893273</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.8864701504235617</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.1226391422077604</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.7237340502712265</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.9415079572970804</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.49104851879189848</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.73514789457201979</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.528804536845081</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.2791031637266015</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.9832308105865164</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.50336578170552815</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.3881444466666415</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.24152064206455273</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.3791337152805876</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.17718785476430005</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.21143163575725019</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.2315311220015043</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.18509314821723297</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.75177213690401479</v>
+      </c>
+      <c r="AY3">
+        <v>0.6616283163715353</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.23409130606441303</v>
+        <v>0.97080645429713486</v>
       </c>
       <c r="C2">
-        <v>0.34246288127354835</v>
+        <v>1.1639202427331687</v>
       </c>
       <c r="D2">
-        <v>3.0465524378090088</v>
+        <v>3.2553633475097685</v>
       </c>
       <c r="E2">
-        <v>0.84788490064791178</v>
+        <v>0.94000999168690191</v>
       </c>
       <c r="F2">
         <v>2.4871776094888554</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0101749874957546</v>
+        <v>1.592273790255478</v>
       </c>
       <c r="C3">
-        <v>0.61745658927608171</v>
+        <v>0.46968756291163238</v>
       </c>
       <c r="D3">
-        <v>0.60259291002287474</v>
+        <v>1.3791337152805876</v>
       </c>
       <c r="E3">
-        <v>1.2877742529084493</v>
+        <v>0.16930704573736804</v>
       </c>
       <c r="F3">
         <v>1.7794670708563864</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.23409130606441303</v>
-      </c>
       <c r="C2">
-        <v>0.34246288127354835</v>
+        <v>0.97080645429713486</v>
       </c>
       <c r="D2">
-        <v>3.0465524378090088</v>
+        <v>0.13896637662626507</v>
       </c>
       <c r="E2">
-        <v>0.84788490064791178</v>
+        <v>3.2553633475097685</v>
       </c>
       <c r="F2">
         <v>2.4871776094888554</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0101749874957546</v>
+        <v>0.22509082614623285</v>
       </c>
       <c r="C3">
-        <v>0.61745658927608171</v>
+        <v>1.592273790255478</v>
       </c>
       <c r="D3">
-        <v>0.60259291002287474</v>
+        <v>0.24152064206455273</v>
       </c>
       <c r="E3">
-        <v>1.2877742529084493</v>
+        <v>1.3791337152805876</v>
       </c>
       <c r="F3">
         <v>1.7794670708563864</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.23409130568638431</v>
+      </c>
       <c r="C2">
+        <v>0.34246287928492741</v>
+      </c>
+      <c r="D2">
+        <v>3.0465524476775085</v>
+      </c>
+      <c r="E2">
+        <v>0.84788489986349658</v>
+      </c>
+      <c r="F2">
+        <v>2.4871775921093744</v>
+      </c>
+      <c r="G2">
+        <v>1.3964855402082479</v>
+      </c>
+      <c r="H2">
+        <v>3.2156899234960874</v>
+      </c>
+      <c r="I2">
+        <v>0.27352583339809033</v>
+      </c>
+      <c r="J2">
+        <v>2.8533691361420424</v>
+      </c>
+      <c r="K2">
+        <v>1.395555179062117</v>
+      </c>
+      <c r="L2">
+        <v>0.62533111034292421</v>
+      </c>
+      <c r="M2">
+        <v>1.8206671976396482</v>
+      </c>
+      <c r="O2">
         <v>0.97080645429713486</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.17126847524027206</v>
+      </c>
+      <c r="Q2">
+        <v>0.61454559446117607</v>
+      </c>
+      <c r="R2">
+        <v>1.1639202427331687</v>
+      </c>
+      <c r="S2">
+        <v>1.1469991501210586</v>
+      </c>
+      <c r="T2">
+        <v>0.4313669900042606</v>
+      </c>
+      <c r="U2">
+        <v>1.6726134213967252</v>
+      </c>
+      <c r="V2">
+        <v>1.2390786078759237</v>
+      </c>
+      <c r="W2">
+        <v>0.50939482482998022</v>
+      </c>
+      <c r="X2">
+        <v>0.21810765697315518</v>
+      </c>
+      <c r="Y2">
+        <v>0.20424097585340317</v>
+      </c>
+      <c r="AA2">
+        <v>0.61244188324353543</v>
+      </c>
+      <c r="AB2">
+        <v>0.19840924639170854</v>
+      </c>
+      <c r="AC2">
+        <v>2.7766074289692946</v>
+      </c>
+      <c r="AD2">
+        <v>0.35876282356010525</v>
+      </c>
+      <c r="AE2">
+        <v>0.87158093780677759</v>
+      </c>
+      <c r="AF2">
+        <v>1.469061151376996</v>
+      </c>
+      <c r="AG2">
+        <v>1.5087207661918476</v>
+      </c>
+      <c r="AH2">
+        <v>0.32853064953736755</v>
+      </c>
+      <c r="AI2">
+        <v>3.8904535714685737</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2635325963367414</v>
+      </c>
+      <c r="AK2">
+        <v>0.86739874858845223</v>
+      </c>
+      <c r="AL2">
+        <v>0.86430153946057631</v>
+      </c>
+      <c r="AM2">
         <v>0.13896637662626507</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.2553633475097685</v>
       </c>
-      <c r="F2">
-        <v>2.4871776094888554</v>
-      </c>
-      <c r="G2">
-        <v>1.3964855459915611</v>
-      </c>
-      <c r="H2">
-        <v>3.2156899299863313</v>
-      </c>
-      <c r="I2">
-        <v>0.273525835410935</v>
-      </c>
-      <c r="J2">
-        <v>2.85336914307709</v>
-      </c>
-      <c r="K2">
-        <v>1.3955551869469209</v>
-      </c>
-      <c r="L2">
-        <v>0.62533111257003782</v>
-      </c>
-      <c r="M2">
-        <v>1.8206671991971255</v>
-      </c>
-      <c r="O2">
-        <v>0.97080644575784181</v>
-      </c>
-      <c r="P2">
-        <v>0.17126847533467557</v>
-      </c>
-      <c r="Q2">
-        <v>0.61454559447217361</v>
-      </c>
-      <c r="R2">
-        <v>1.1639202411823244</v>
-      </c>
-      <c r="S2">
-        <v>1.1469991473401797</v>
-      </c>
-      <c r="T2">
-        <v>0.4313669896276523</v>
-      </c>
-      <c r="U2">
-        <v>1.6726134274881641</v>
-      </c>
-      <c r="V2">
-        <v>1.2390786137633631</v>
-      </c>
-      <c r="W2">
-        <v>0.50939482645407863</v>
-      </c>
-      <c r="X2">
-        <v>0.2181076574695345</v>
-      </c>
-      <c r="Y2">
-        <v>0.20424097673662658</v>
-      </c>
-      <c r="AA2">
-        <v>0.61244188221520512</v>
-      </c>
-      <c r="AB2">
-        <v>0.19840924578573307</v>
-      </c>
-      <c r="AC2">
-        <v>2.7766074423963238</v>
-      </c>
-      <c r="AD2">
-        <v>0.35876282341794441</v>
-      </c>
-      <c r="AE2">
-        <v>0.87158094859681279</v>
-      </c>
-      <c r="AF2">
-        <v>1.4690611499502204</v>
-      </c>
-      <c r="AG2">
-        <v>1.5087207645982812</v>
-      </c>
-      <c r="AH2">
-        <v>0.32853064830896739</v>
-      </c>
-      <c r="AI2">
-        <v>3.8904535546245782</v>
-      </c>
-      <c r="AJ2">
-        <v>2.2635325961796986</v>
-      </c>
-      <c r="AK2">
-        <v>0.86739875054692805</v>
-      </c>
-      <c r="AL2">
-        <v>0.86430155006420828</v>
-      </c>
-      <c r="AM2">
-        <v>0.13896637642264109</v>
-      </c>
-      <c r="AN2">
-        <v>3.2553633447683126</v>
-      </c>
       <c r="AO2">
-        <v>0.25601607200603238</v>
+        <v>0.25601607130077603</v>
       </c>
       <c r="AP2">
-        <v>0.58877329702929104</v>
+        <v>0.58877330293659835</v>
       </c>
       <c r="AQ2">
-        <v>0.94000998710435457</v>
+        <v>0.94000999168690191</v>
       </c>
       <c r="AR2">
-        <v>0.3859843439288429</v>
+        <v>0.38598434198304565</v>
       </c>
       <c r="AS2">
-        <v>0.32904622153172264</v>
+        <v>0.32904621937662915</v>
       </c>
       <c r="AT2">
-        <v>1.3362282719359961</v>
+        <v>1.3362282627146371</v>
       </c>
       <c r="AU2">
-        <v>0.856704019049773</v>
+        <v>0.85670402085418562</v>
       </c>
       <c r="AV2">
-        <v>0.39526291260311297</v>
+        <v>0.39526291068194364</v>
       </c>
       <c r="AW2">
-        <v>0.21713541387127616</v>
+        <v>0.21713541417780044</v>
       </c>
       <c r="AX2">
-        <v>0.22390195355468273</v>
+        <v>0.22390195274019448</v>
       </c>
       <c r="AY2">
-        <v>0.75888876107568337</v>
+        <v>0.7588887553863175</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.0101749891155236</v>
+      </c>
+      <c r="C3">
+        <v>0.61745659234070605</v>
+      </c>
+      <c r="D3">
+        <v>0.60259291125627212</v>
+      </c>
+      <c r="E3">
+        <v>1.2877742380629895</v>
+      </c>
+      <c r="F3">
+        <v>1.7794670705552225</v>
+      </c>
+      <c r="G3">
+        <v>1.8117098584444205</v>
+      </c>
+      <c r="H3">
+        <v>3.379831718836189</v>
+      </c>
+      <c r="I3">
+        <v>0.8009767049244918</v>
+      </c>
+      <c r="J3">
+        <v>1.8546843217068776</v>
+      </c>
+      <c r="K3">
+        <v>1.7955988992080243</v>
+      </c>
+      <c r="L3">
+        <v>0.83709984572125262</v>
+      </c>
+      <c r="M3">
+        <v>0.59224584500765709</v>
+      </c>
+      <c r="N3">
         <v>0.22509082614623285</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.592273790255478</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.2121410568890178</v>
+      </c>
+      <c r="Q3">
+        <v>0.4254304001243418</v>
+      </c>
+      <c r="R3">
+        <v>0.46968756291163238</v>
+      </c>
+      <c r="S3">
+        <v>0.22274686477496294</v>
+      </c>
+      <c r="T3">
+        <v>0.23885628236748105</v>
+      </c>
+      <c r="U3">
+        <v>2.3281626436531844</v>
+      </c>
+      <c r="V3">
+        <v>0.8589953580164611</v>
+      </c>
+      <c r="W3">
+        <v>7.7870994231693511E-2</v>
+      </c>
+      <c r="X3">
+        <v>0.313221229582751</v>
+      </c>
+      <c r="Y3">
+        <v>0.53555560396259916</v>
+      </c>
+      <c r="AA3">
+        <v>0.52947107596893273</v>
+      </c>
+      <c r="AB3">
+        <v>2.8864701504235617</v>
+      </c>
+      <c r="AC3">
+        <v>1.3470668114975866</v>
+      </c>
+      <c r="AD3">
+        <v>0.7237340502712265</v>
+      </c>
+      <c r="AE3">
+        <v>1.9415079572970804</v>
+      </c>
+      <c r="AF3">
+        <v>0.49104851879189848</v>
+      </c>
+      <c r="AG3">
+        <v>0.73514789457202467</v>
+      </c>
+      <c r="AH3">
+        <v>0.30925147345630422</v>
+      </c>
+      <c r="AI3">
+        <v>1.2791031637266015</v>
+      </c>
+      <c r="AJ3">
+        <v>1.9832308105865164</v>
+      </c>
+      <c r="AK3">
+        <v>0.50336578170552815</v>
+      </c>
+      <c r="AL3">
+        <v>0.3881444466666415</v>
+      </c>
+      <c r="AM3">
         <v>0.24152064206455273</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.3791337152805876</v>
       </c>
-      <c r="F3">
-        <v>1.7794670708563864</v>
-      </c>
-      <c r="G3">
-        <v>1.8117098636893627</v>
-      </c>
-      <c r="H3">
-        <v>3.3798317214192921</v>
-      </c>
-      <c r="I3">
-        <v>0.80097671091229095</v>
-      </c>
-      <c r="J3">
-        <v>1.8546843257976924</v>
-      </c>
-      <c r="K3">
-        <v>1.7955989004073338</v>
-      </c>
-      <c r="L3">
-        <v>0.83709985102724771</v>
-      </c>
-      <c r="M3">
-        <v>0.59225005923792029</v>
-      </c>
-      <c r="N3">
-        <v>0.22509082660851382</v>
-      </c>
-      <c r="O3">
-        <v>1.5922737899145689</v>
-      </c>
-      <c r="P3">
-        <v>0.2121410596992325</v>
-      </c>
-      <c r="Q3">
-        <v>0.425430396393215</v>
-      </c>
-      <c r="R3">
-        <v>0.46968756262080735</v>
-      </c>
-      <c r="S3">
-        <v>0.22274686693767207</v>
-      </c>
-      <c r="T3">
-        <v>0.23885628161138869</v>
-      </c>
-      <c r="U3">
-        <v>2.3281626443057042</v>
-      </c>
-      <c r="V3">
-        <v>0.8589953610750094</v>
-      </c>
-      <c r="W3">
-        <v>7.7870994830615298E-2</v>
-      </c>
-      <c r="X3">
-        <v>0.31322123111352912</v>
-      </c>
-      <c r="Y3">
-        <v>0.53555560578663697</v>
-      </c>
-      <c r="AA3">
-        <v>0.52947107283727113</v>
-      </c>
-      <c r="AB3">
-        <v>2.8864701564471518</v>
-      </c>
-      <c r="AC3">
-        <v>1.3470668050623293</v>
-      </c>
-      <c r="AD3">
-        <v>0.723734053193408</v>
-      </c>
-      <c r="AE3">
-        <v>1.9415079480407929</v>
-      </c>
-      <c r="AF3">
-        <v>0.49104851891043744</v>
-      </c>
-      <c r="AG3">
-        <v>0.73514790092257465</v>
-      </c>
-      <c r="AH3">
-        <v>0.30925147620975457</v>
-      </c>
-      <c r="AI3">
-        <v>1.2791031606802714</v>
-      </c>
-      <c r="AJ3">
-        <v>1.9832308120695974</v>
-      </c>
-      <c r="AK3">
-        <v>0.50336578133530085</v>
-      </c>
-      <c r="AL3">
-        <v>0.38814444847488572</v>
-      </c>
-      <c r="AM3">
-        <v>0.24152064178132299</v>
-      </c>
-      <c r="AN3">
-        <v>1.3791337205524443</v>
-      </c>
       <c r="AO3">
-        <v>0.17718785669933823</v>
+        <v>0.17718785476430005</v>
       </c>
       <c r="AP3">
-        <v>0.16980876568898093</v>
+        <v>0.16980876664640207</v>
       </c>
       <c r="AQ3">
-        <v>0.16930704665881838</v>
+        <v>0.16930704573736804</v>
       </c>
       <c r="AR3">
-        <v>0.18508559558426266</v>
+        <v>0.18508559623317553</v>
       </c>
       <c r="AS3">
-        <v>0.25085951584491128</v>
+        <v>0.25085951673322077</v>
       </c>
       <c r="AT3">
-        <v>1.0265552930421573</v>
+        <v>1.0265552956589588</v>
       </c>
       <c r="AU3">
-        <v>1.0181748079869442</v>
+        <v>1.0181748038709504</v>
       </c>
       <c r="AV3">
-        <v>0.20811207081762079</v>
+        <v>0.20811207195640744</v>
       </c>
       <c r="AW3">
-        <v>0.30033570829958189</v>
+        <v>0.30033570430314366</v>
       </c>
       <c r="AX3">
-        <v>0.7517721377438189</v>
+        <v>0.75177213690401479</v>
       </c>
       <c r="AY3">
-        <v>0.66162831933027655</v>
+        <v>0.6616283163715353</v>
       </c>
     </row>
   </sheetData>
